--- a/Figures/energy_table.xlsx
+++ b/Figures/energy_table.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4882D0A6-8586-47D7-95CC-44ACE3CBDEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3600s" sheetId="1" r:id="rId1"/>
     <sheet name="100s" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>1,10,30</t>
   </si>
@@ -77,12 +84,27 @@
   </si>
   <si>
     <t>TC</t>
+  </si>
+  <si>
+    <t>WR1</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>WR36</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,13 +142,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,20 +436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H6:M18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M4" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -436,7 +470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>11</v>
       </c>
@@ -457,7 +491,7 @@
         <v>11185.4052134462</v>
       </c>
     </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>0</v>
       </c>
@@ -478,7 +512,7 @@
         <v>15742.9251162521</v>
       </c>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>1</v>
       </c>
@@ -499,7 +533,7 @@
         <v>19265.213526100801</v>
       </c>
     </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>2</v>
       </c>
@@ -520,7 +554,7 @@
         <v>11404.799999999899</v>
       </c>
     </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>3</v>
       </c>
@@ -541,7 +575,7 @@
         <v>16770.166919121501</v>
       </c>
     </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>4</v>
       </c>
@@ -562,7 +596,7 @@
         <v>21977.169167517201</v>
       </c>
     </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>5</v>
       </c>
@@ -583,7 +617,7 @@
         <v>19221.444484113999</v>
       </c>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -604,7 +638,7 @@
         <v>27450.988850000002</v>
       </c>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>7</v>
       </c>
@@ -625,7 +659,7 @@
         <v>34938.650173936301</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>8</v>
       </c>
@@ -646,7 +680,7 @@
         <v>19441.17036</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>9</v>
       </c>
@@ -667,7 +701,7 @@
         <v>27975.552810000001</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>10</v>
       </c>
@@ -694,330 +728,383 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G4:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="E4:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
+    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3">
         <v>11185.4052134462</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>11185.4052134462</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>11185.4052134462</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>11185.4052134462</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>11185.4052134462</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <f>MAX(H5:L5)</f>
         <v>11185.4052134462</v>
       </c>
     </row>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
         <v>15739.5700807506</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>15738.4517355834</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>15742.9251162521</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>15735.0967</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>15740.68843</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f t="shared" ref="M6:M16" si="0">MAX(H6:L6)</f>
         <v>15742.9251162521</v>
       </c>
     </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3">
         <v>19265.213526100801</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>19265.213526100801</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>18952.9722601207</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>19265.213526100801</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>19265.213526100801</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f t="shared" si="0"/>
         <v>19265.213526100801</v>
       </c>
     </row>
-    <row r="8" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
         <v>11404.799999999899</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>11404.799999999899</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>11404.799999999899</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <v>11404.799999999899</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <v>11404.799999999899</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <f t="shared" si="0"/>
         <v>11404.799999999899</v>
       </c>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
         <v>16695.0521065102</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>16758.453401672901</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>16715.188333090598</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>16755.751</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>16570.96154</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <f t="shared" si="0"/>
         <v>16758.453401672901</v>
       </c>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3">
         <v>21977.169167517201</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>21905.520236910201</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>21643.557454600599</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>21977.169000000002</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>21874.036260000001</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <f t="shared" si="0"/>
         <v>21977.169167517201</v>
       </c>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
         <v>19022.7706757265</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>19221.444484113999</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>19221.444484113999</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>19193.415000000001</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="3">
         <v>19221.444484113999</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <f t="shared" si="0"/>
         <v>19221.444484113999</v>
       </c>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2">
         <v>27247.504322183599</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>27442.900384107201</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>27418.739304170202</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>27387.061000000002</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="3">
         <v>27450.988850000002</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <f t="shared" si="0"/>
         <v>27450.988850000002</v>
       </c>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2">
         <v>34671.620426677502</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>34938.650173936301</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>34938.650173936301</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <v>34817.273000000001</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>34888.807350000003</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <f t="shared" si="0"/>
         <v>34938.650173936301</v>
       </c>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2">
         <v>18448.6387846666</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>19336.330217561099</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>19172.555258946501</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <v>19354.225999999999</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="3">
         <v>19441.17036</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <f t="shared" si="0"/>
         <v>19441.17036</v>
       </c>
     </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
         <v>26367.1995542845</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>27751.983795723299</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>27443.659360306599</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <v>27492.109</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="3">
         <v>27975.552810000001</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <f t="shared" si="0"/>
         <v>27975.552810000001</v>
       </c>
     </row>
-    <row r="16" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2">
         <v>33451.943935618699</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>35654.5020042334</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>35127.317987270399</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <v>35065.853999999999</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>35604.450109999998</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <f t="shared" si="0"/>
         <v>35654.5020042334</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E11:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Figures/energy_table.xlsx
+++ b/Figures/energy_table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4882D0A6-8586-47D7-95CC-44ACE3CBDEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188EE48D-E356-41C9-832A-1850D703254C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3600s" sheetId="1" r:id="rId1"/>
-    <sheet name="100s" sheetId="2" r:id="rId2"/>
+    <sheet name="100s" sheetId="2" r:id="rId1"/>
+    <sheet name="3600s" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -152,6 +152,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,314 +439,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H6:M18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="M1:M1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1">
-        <v>11185.4052134462</v>
-      </c>
-      <c r="J7" s="1">
-        <v>11185.4052134462</v>
-      </c>
-      <c r="K7" s="1">
-        <v>11185.4052134462</v>
-      </c>
-      <c r="L7" s="1">
-        <v>11185.4052134462</v>
-      </c>
-      <c r="M7">
-        <f>MAX(I7:L7)</f>
-        <v>11185.4052134462</v>
-      </c>
-    </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>15739.5700807506</v>
-      </c>
-      <c r="J8">
-        <v>15738.4517355834</v>
-      </c>
-      <c r="K8" s="1">
-        <v>15742.9251162521</v>
-      </c>
-      <c r="L8">
-        <v>15740.68843</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M18" si="0">MAX(I8:L8)</f>
-        <v>15742.9251162521</v>
-      </c>
-    </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>19265.213526100801</v>
-      </c>
-      <c r="J9" s="1">
-        <v>19265.213526100801</v>
-      </c>
-      <c r="K9">
-        <v>18952.9722601207</v>
-      </c>
-      <c r="L9" s="1">
-        <v>19265.213526100801</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>19265.213526100801</v>
-      </c>
-    </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>11404.799999999899</v>
-      </c>
-      <c r="J10" s="1">
-        <v>11404.799999999899</v>
-      </c>
-      <c r="K10" s="1">
-        <v>11404.799999999899</v>
-      </c>
-      <c r="L10" s="1">
-        <v>11404.799999999899</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>11404.799999999899</v>
-      </c>
-    </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>16770.166919121501</v>
-      </c>
-      <c r="J11">
-        <v>16758.453401672901</v>
-      </c>
-      <c r="K11">
-        <v>16742.660747638201</v>
-      </c>
-      <c r="L11">
-        <v>16570.96154</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>16770.166919121501</v>
-      </c>
-    </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1">
-        <v>21977.169167517201</v>
-      </c>
-      <c r="J12">
-        <v>21963.814805141101</v>
-      </c>
-      <c r="K12">
-        <v>21832.4990810206</v>
-      </c>
-      <c r="L12">
-        <v>21874.036260000001</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>21977.169167517201</v>
-      </c>
-    </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>19213.959028912101</v>
-      </c>
-      <c r="J13" s="1">
-        <v>19221.444484113999</v>
-      </c>
-      <c r="K13" s="1">
-        <v>19221.444484113999</v>
-      </c>
-      <c r="L13" s="1">
-        <v>19221.444484113999</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>19221.444484113999</v>
-      </c>
-    </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>27389.205971391901</v>
-      </c>
-      <c r="J14">
-        <v>27442.900384107201</v>
-      </c>
-      <c r="K14">
-        <v>27442.900384107201</v>
-      </c>
-      <c r="L14" s="1">
-        <v>27450.988850000002</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>27450.988850000002</v>
-      </c>
-    </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>34856.445034323602</v>
-      </c>
-      <c r="J15" s="1">
-        <v>34938.650173936301</v>
-      </c>
-      <c r="K15" s="1">
-        <v>34938.650173936301</v>
-      </c>
-      <c r="L15">
-        <v>34888.807350000003</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>34938.650173936301</v>
-      </c>
-    </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16">
-        <v>19368.863725559699</v>
-      </c>
-      <c r="J16">
-        <v>19336.330217561099</v>
-      </c>
-      <c r="K16">
-        <v>19394.582041829199</v>
-      </c>
-      <c r="L16" s="1">
-        <v>19441.17036</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>19441.17036</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>27633.197250408499</v>
-      </c>
-      <c r="J17">
-        <v>27751.983795723299</v>
-      </c>
-      <c r="K17">
-        <v>27785.737136005799</v>
-      </c>
-      <c r="L17" s="1">
-        <v>27975.552810000001</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>27975.552810000001</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>35210.776685605997</v>
-      </c>
-      <c r="J18" s="1">
-        <v>35665.605816718198</v>
-      </c>
-      <c r="K18">
-        <v>35480.895292031499</v>
-      </c>
-      <c r="L18">
-        <v>35604.450109999998</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>35665.605816718198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E4:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
@@ -754,29 +465,29 @@
         <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="5" t="s">
+    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>10</v>
       </c>
       <c r="G5" s="2">
@@ -798,39 +509,39 @@
         <v>11185.4052134462</v>
       </c>
       <c r="M5" s="2">
-        <f>MAX(H5:L5)</f>
+        <f>MAX(K5:L5)</f>
         <v>11185.4052134462</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>30</v>
       </c>
       <c r="H6" s="2">
-        <v>15739.5700807506</v>
-      </c>
-      <c r="I6" s="2">
+        <v>15740.68843</v>
+      </c>
+      <c r="I6" s="5">
         <v>15738.4517355834</v>
       </c>
       <c r="J6" s="3">
         <v>15742.9251162521</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
+        <v>15739.5700807506</v>
+      </c>
+      <c r="L6" s="4">
         <v>15735.0967</v>
       </c>
-      <c r="L6" s="2">
-        <v>15740.68843</v>
-      </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M16" si="0">MAX(H6:L6)</f>
-        <v>15742.9251162521</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <f>MAX(K6:L6)</f>
+        <v>15739.5700807506</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>40</v>
       </c>
@@ -840,7 +551,7 @@
       <c r="I7" s="3">
         <v>19265.213526100801</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>18952.9722601207</v>
       </c>
       <c r="K7" s="3">
@@ -850,13 +561,13 @@
         <v>19265.213526100801</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(K7:L7)</f>
         <v>19265.213526100801</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>20</v>
       </c>
       <c r="G8" s="2">
@@ -878,74 +589,74 @@
         <v>11404.799999999899</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(K8:L8)</f>
         <v>11404.799999999899</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2">
         <v>30</v>
       </c>
       <c r="H9" s="2">
-        <v>16695.0521065102</v>
+        <v>16570.96154</v>
       </c>
       <c r="I9" s="3">
         <v>16758.453401672901</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>16715.188333090598</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
+        <v>16695.0521065102</v>
+      </c>
+      <c r="L9" s="4">
         <v>16755.751</v>
       </c>
-      <c r="L9" s="2">
-        <v>16570.96154</v>
-      </c>
       <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>16758.453401672901</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <f>MAX(K9:L9)</f>
+        <v>16755.751</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2">
         <v>40</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
+        <v>21874.036260000001</v>
+      </c>
+      <c r="I10" s="5">
+        <v>21905.520236910201</v>
+      </c>
+      <c r="J10" s="5">
+        <v>21643.557454600599</v>
+      </c>
+      <c r="K10" s="3">
         <v>21977.169167517201</v>
       </c>
-      <c r="I10" s="2">
-        <v>21905.520236910201</v>
-      </c>
-      <c r="J10" s="2">
-        <v>21643.557454600599</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21977.169000000002</v>
       </c>
-      <c r="L10" s="2">
-        <v>21874.036260000001</v>
-      </c>
       <c r="M10" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(K10:L10)</f>
         <v>21977.169167517201</v>
       </c>
     </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
       </c>
-      <c r="H11" s="2">
-        <v>19022.7706757265</v>
+      <c r="H11" s="3">
+        <v>19221.444484113999</v>
       </c>
       <c r="I11" s="3">
         <v>19221.444484113999</v>
@@ -953,51 +664,51 @@
       <c r="J11" s="3">
         <v>19221.444484113999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
+        <v>19022.7706757265</v>
+      </c>
+      <c r="L11" s="4">
         <v>19193.415000000001</v>
       </c>
-      <c r="L11" s="3">
-        <v>19221.444484113999</v>
-      </c>
       <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>19221.444484113999</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <f>MAX(K11:L11)</f>
+        <v>19193.415000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2">
         <v>30</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
+        <v>27450.988850000002</v>
+      </c>
+      <c r="I12" s="5">
+        <v>27442.900384107201</v>
+      </c>
+      <c r="J12" s="5">
+        <v>27418.739304170202</v>
+      </c>
+      <c r="K12" s="2">
         <v>27247.504322183599</v>
       </c>
-      <c r="I12" s="2">
-        <v>27442.900384107201</v>
-      </c>
-      <c r="J12" s="2">
-        <v>27418.739304170202</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>27387.061000000002</v>
       </c>
-      <c r="L12" s="3">
-        <v>27450.988850000002</v>
-      </c>
       <c r="M12" s="2">
-        <f t="shared" si="0"/>
-        <v>27450.988850000002</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <f>MAX(K12:L12)</f>
+        <v>27387.061000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>40</v>
       </c>
       <c r="H13" s="2">
-        <v>34671.620426677502</v>
+        <v>34888.807350000003</v>
       </c>
       <c r="I13" s="3">
         <v>34938.650173936301</v>
@@ -1005,95 +716,95 @@
       <c r="J13" s="3">
         <v>34938.650173936301</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
+        <v>34671.620426677502</v>
+      </c>
+      <c r="L13" s="4">
         <v>34817.273000000001</v>
       </c>
-      <c r="L13" s="2">
-        <v>34888.807350000003</v>
-      </c>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>34938.650173936301</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+        <f>MAX(K13:L13)</f>
+        <v>34817.273000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>20</v>
       </c>
       <c r="G14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
+        <v>19441.17036</v>
+      </c>
+      <c r="I14" s="5">
+        <v>19336.330217561099</v>
+      </c>
+      <c r="J14" s="5">
+        <v>19172.555258946501</v>
+      </c>
+      <c r="K14" s="2">
         <v>18448.6387846666</v>
       </c>
-      <c r="I14" s="2">
-        <v>19336.330217561099</v>
-      </c>
-      <c r="J14" s="2">
-        <v>19172.555258946501</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>19354.225999999999</v>
       </c>
-      <c r="L14" s="3">
-        <v>19441.17036</v>
-      </c>
       <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>19441.17036</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <f>MAX(K14:L14)</f>
+        <v>19354.225999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>30</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
+        <v>27975.552810000001</v>
+      </c>
+      <c r="I15" s="5">
+        <v>27751.983795723299</v>
+      </c>
+      <c r="J15" s="5">
+        <v>27443.659360306599</v>
+      </c>
+      <c r="K15" s="2">
         <v>26367.1995542845</v>
       </c>
-      <c r="I15" s="2">
-        <v>27751.983795723299</v>
-      </c>
-      <c r="J15" s="2">
-        <v>27443.659360306599</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>27492.109</v>
       </c>
-      <c r="L15" s="3">
-        <v>27975.552810000001</v>
-      </c>
       <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>27975.552810000001</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+        <f>MAX(K15:L15)</f>
+        <v>27492.109</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>40</v>
       </c>
       <c r="H16" s="2">
-        <v>33451.943935618699</v>
+        <v>35604.450109999998</v>
       </c>
       <c r="I16" s="3">
         <v>35654.5020042334</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>35127.317987270399</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
+        <v>33451.943935618699</v>
+      </c>
+      <c r="L16" s="4">
         <v>35065.853999999999</v>
       </c>
-      <c r="L16" s="2">
-        <v>35604.450109999998</v>
-      </c>
       <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>35654.5020042334</v>
+        <f>MAX(K16:L16)</f>
+        <v>35065.853999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1107,4 +818,296 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="H6:M18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M4" sqref="M1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11185.4052134462</v>
+      </c>
+      <c r="J7" s="1">
+        <v>11185.4052134462</v>
+      </c>
+      <c r="K7" s="1">
+        <v>11185.4052134462</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11185.4052134462</v>
+      </c>
+      <c r="M7">
+        <f>MAX(I7:L7)</f>
+        <v>11185.4052134462</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>15739.5700807506</v>
+      </c>
+      <c r="J8">
+        <v>15738.4517355834</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15742.9251162521</v>
+      </c>
+      <c r="L8">
+        <v>15740.68843</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M18" si="0">MAX(I8:L8)</f>
+        <v>15742.9251162521</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>19265.213526100801</v>
+      </c>
+      <c r="J9" s="1">
+        <v>19265.213526100801</v>
+      </c>
+      <c r="K9">
+        <v>18952.9722601207</v>
+      </c>
+      <c r="L9" s="1">
+        <v>19265.213526100801</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>19265.213526100801</v>
+      </c>
+    </row>
+    <row r="10" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>11404.799999999899</v>
+      </c>
+      <c r="J10" s="1">
+        <v>11404.799999999899</v>
+      </c>
+      <c r="K10" s="1">
+        <v>11404.799999999899</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11404.799999999899</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>11404.799999999899</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16770.166919121501</v>
+      </c>
+      <c r="J11">
+        <v>16758.453401672901</v>
+      </c>
+      <c r="K11">
+        <v>16742.660747638201</v>
+      </c>
+      <c r="L11">
+        <v>16570.96154</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>16770.166919121501</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>21977.169167517201</v>
+      </c>
+      <c r="J12">
+        <v>21963.814805141101</v>
+      </c>
+      <c r="K12">
+        <v>21832.4990810206</v>
+      </c>
+      <c r="L12">
+        <v>21874.036260000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>21977.169167517201</v>
+      </c>
+    </row>
+    <row r="13" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>19213.959028912101</v>
+      </c>
+      <c r="J13" s="1">
+        <v>19221.444484113999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>19221.444484113999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19221.444484113999</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>19221.444484113999</v>
+      </c>
+    </row>
+    <row r="14" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>27389.205971391901</v>
+      </c>
+      <c r="J14">
+        <v>27442.900384107201</v>
+      </c>
+      <c r="K14">
+        <v>27442.900384107201</v>
+      </c>
+      <c r="L14" s="1">
+        <v>27450.988850000002</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>27450.988850000002</v>
+      </c>
+    </row>
+    <row r="15" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>34856.445034323602</v>
+      </c>
+      <c r="J15" s="1">
+        <v>34938.650173936301</v>
+      </c>
+      <c r="K15" s="1">
+        <v>34938.650173936301</v>
+      </c>
+      <c r="L15">
+        <v>34888.807350000003</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>34938.650173936301</v>
+      </c>
+    </row>
+    <row r="16" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>19368.863725559699</v>
+      </c>
+      <c r="J16">
+        <v>19336.330217561099</v>
+      </c>
+      <c r="K16">
+        <v>19394.582041829199</v>
+      </c>
+      <c r="L16" s="1">
+        <v>19441.17036</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>19441.17036</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>27633.197250408499</v>
+      </c>
+      <c r="J17">
+        <v>27751.983795723299</v>
+      </c>
+      <c r="K17">
+        <v>27785.737136005799</v>
+      </c>
+      <c r="L17" s="1">
+        <v>27975.552810000001</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>27975.552810000001</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>35210.776685605997</v>
+      </c>
+      <c r="J18" s="1">
+        <v>35665.605816718198</v>
+      </c>
+      <c r="K18">
+        <v>35480.895292031499</v>
+      </c>
+      <c r="L18">
+        <v>35604.450109999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>35665.605816718198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>